--- a/decesos_pais.xlsx
+++ b/decesos_pais.xlsx
@@ -152,7 +152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="N55" activeCellId="0" sqref="N55"/>
+      <selection pane="bottomRight" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1288,6 +1288,21 @@
       <c r="C44" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>5982</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>10023</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>2220</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -1295,6 +1310,9 @@
       </c>
       <c r="B45" s="0" t="n">
         <v>44</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/decesos_pais.xlsx
+++ b/decesos_pais.xlsx
@@ -152,7 +152,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="G45" activeCellId="0" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1314,6 +1314,21 @@
       <c r="C45" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>6803</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>10779</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>2583</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -1321,6 +1336,9 @@
       </c>
       <c r="B46" s="0" t="n">
         <v>45</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/decesos_pais.xlsx
+++ b/decesos_pais.xlsx
@@ -148,11 +148,11 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H46" activeCellId="0" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="H48" activeCellId="0" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1340,6 +1340,21 @@
       <c r="C46" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>7716</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>11591</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>3141</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -1348,6 +1363,24 @@
       <c r="B47" s="0" t="n">
         <v>46</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>8464</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>12428</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>4053</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -1355,6 +1388,9 @@
       </c>
       <c r="B48" s="0" t="n">
         <v>47</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/decesos_pais.xlsx
+++ b/decesos_pais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">EEUU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
   </si>
 </sst>
 </file>
@@ -145,14 +148,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="H48" activeCellId="0" sqref="H48"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="H51" activeCellId="0" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,6 +188,9 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1392,6 +1398,21 @@
       <c r="C48" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>9387</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>13155</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>5102</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -1400,6 +1421,24 @@
       <c r="B49" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>324</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>10348</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>13915</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>6070</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -1408,6 +1447,24 @@
       <c r="B50" s="0" t="n">
         <v>49</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>363</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>11198</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>14681</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>7404</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -1415,6 +1472,9 @@
       </c>
       <c r="B51" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
